--- a/data/oxygen-correlation/oxygen_samples.xlsx
+++ b/data/oxygen-correlation/oxygen_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/oxygen-correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7174E-959C-7241-ACBD-AEAB0FFAA38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6F60B-9C55-5943-A850-4B5108B2D3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{F9B76D48-E646-9D48-9AB8-3319F507EDF2}"/>
+    <workbookView xWindow="16000" yWindow="760" windowWidth="14240" windowHeight="17760" xr2:uid="{F9B76D48-E646-9D48-9AB8-3319F507EDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="132">
   <si>
     <t>plate</t>
   </si>
@@ -302,16 +302,136 @@
     <t>notes</t>
   </si>
   <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
     <t>2-D5</t>
+  </si>
+  <si>
+    <t>1-A2</t>
+  </si>
+  <si>
+    <t>1-A4</t>
+  </si>
+  <si>
+    <t>1-A10</t>
+  </si>
+  <si>
+    <t>1-B5</t>
+  </si>
+  <si>
+    <t>1-B6</t>
+  </si>
+  <si>
+    <t>1-B8</t>
+  </si>
+  <si>
+    <t>1-D1</t>
+  </si>
+  <si>
+    <t>1-D3</t>
+  </si>
+  <si>
+    <t>1-D9</t>
+  </si>
+  <si>
+    <t>2-A6</t>
+  </si>
+  <si>
+    <t>2-A8</t>
+  </si>
+  <si>
+    <t>2-B3</t>
+  </si>
+  <si>
+    <t>2-B6</t>
+  </si>
+  <si>
+    <t>2-B7</t>
+  </si>
+  <si>
+    <t>2-B9</t>
+  </si>
+  <si>
+    <t>2-C2</t>
+  </si>
+  <si>
+    <t>2-C7</t>
+  </si>
+  <si>
+    <t>2-C10</t>
+  </si>
+  <si>
+    <t>2-D1</t>
+  </si>
+  <si>
+    <t>2-D2</t>
+  </si>
+  <si>
+    <t>2-D3</t>
+  </si>
+  <si>
+    <t>2-D4</t>
+  </si>
+  <si>
+    <t>2-D6</t>
+  </si>
+  <si>
+    <t>2-D7</t>
+  </si>
+  <si>
+    <t>2-D8</t>
+  </si>
+  <si>
+    <t>2-D9</t>
+  </si>
+  <si>
+    <t>2-D10</t>
+  </si>
+  <si>
+    <t>plate5</t>
+  </si>
+  <si>
+    <t>1-E1</t>
+  </si>
+  <si>
+    <t>1-E2</t>
+  </si>
+  <si>
+    <t>1-E3</t>
+  </si>
+  <si>
+    <t>1-E4</t>
+  </si>
+  <si>
+    <t>1-E5</t>
+  </si>
+  <si>
+    <t>1-E6</t>
+  </si>
+  <si>
+    <t>1-E7</t>
+  </si>
+  <si>
+    <t>1-E8</t>
+  </si>
+  <si>
+    <t>2-E1</t>
+  </si>
+  <si>
+    <t>2-E2</t>
+  </si>
+  <si>
+    <t>2-E3</t>
+  </si>
+  <si>
+    <t>2-E4</t>
+  </si>
+  <si>
+    <t>2-E5</t>
+  </si>
+  <si>
+    <t>2-E6</t>
+  </si>
+  <si>
+    <t>2-E7</t>
   </si>
 </sst>
 </file>
@@ -689,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7159BF13-8618-0540-AFAB-AF0D60C37565}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,9 +852,6 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -744,13 +861,10 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -761,13 +875,10 @@
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -778,12 +889,9 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -795,12 +903,9 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -812,13 +917,10 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -829,13 +931,10 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -846,13 +945,10 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,12 +959,9 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -880,12 +973,9 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -897,13 +987,10 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -914,12 +1001,9 @@
         <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -931,12 +1015,9 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -948,12 +1029,9 @@
         <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -965,16 +1043,13 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -987,11 +1062,8 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1004,11 +1076,8 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1016,16 +1085,13 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1033,16 +1099,13 @@
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1055,11 +1118,8 @@
       <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1067,16 +1127,13 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1084,16 +1141,13 @@
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1101,16 +1155,13 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1118,16 +1169,13 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1135,16 +1183,13 @@
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1152,16 +1197,13 @@
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1169,16 +1211,13 @@
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1186,16 +1225,13 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1203,16 +1239,13 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1220,16 +1253,13 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1237,16 +1267,13 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1254,16 +1281,13 @@
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1271,16 +1295,13 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1288,16 +1309,13 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1305,16 +1323,13 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1322,16 +1337,13 @@
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1339,16 +1351,13 @@
         <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1356,16 +1365,13 @@
         <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1373,16 +1379,13 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1390,16 +1393,13 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1407,16 +1407,13 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1424,16 +1421,13 @@
         <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1441,16 +1435,13 @@
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1458,16 +1449,13 @@
         <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1475,16 +1463,13 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1492,16 +1477,13 @@
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1509,16 +1491,13 @@
         <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1526,16 +1505,13 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1543,16 +1519,13 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -1560,16 +1533,13 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -1582,11 +1552,8 @@
       <c r="D52" t="s">
         <v>5</v>
       </c>
-      <c r="E52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -1594,16 +1561,13 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1611,16 +1575,13 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -1628,16 +1589,13 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1650,11 +1608,8 @@
       <c r="D56" t="s">
         <v>5</v>
       </c>
-      <c r="E56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1662,16 +1617,13 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -1679,16 +1631,13 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1696,16 +1645,13 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -1713,16 +1659,13 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -1730,16 +1673,13 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -1747,16 +1687,13 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -1764,16 +1701,13 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1781,16 +1715,13 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1798,16 +1729,13 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
-      <c r="E65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1815,16 +1743,13 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -1832,16 +1757,13 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -1849,16 +1771,13 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
       </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1866,16 +1785,13 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
-      <c r="E69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -1883,16 +1799,13 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -1905,11 +1818,8 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-      <c r="E71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -1917,16 +1827,13 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
       </c>
-      <c r="E72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -1934,16 +1841,13 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -1956,11 +1860,8 @@
       <c r="D74" t="s">
         <v>5</v>
       </c>
-      <c r="E74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -1968,16 +1869,13 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -1985,16 +1883,13 @@
         <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2002,16 +1897,13 @@
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -2019,16 +1911,13 @@
         <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -2036,16 +1925,13 @@
         <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
       </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -2053,16 +1939,13 @@
         <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -2070,16 +1953,13 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -2092,11 +1972,8 @@
       <c r="D82" t="s">
         <v>5</v>
       </c>
-      <c r="E82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -2104,16 +1981,13 @@
         <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -2121,16 +1995,13 @@
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -2138,16 +2009,13 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -2155,16 +2023,13 @@
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -2172,16 +2037,13 @@
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -2189,16 +2051,13 @@
         <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -2211,11 +2070,8 @@
       <c r="D89" t="s">
         <v>5</v>
       </c>
-      <c r="E89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -2223,16 +2079,13 @@
         <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2240,16 +2093,13 @@
         <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -2257,16 +2107,13 @@
         <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -2274,16 +2121,13 @@
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -2291,16 +2135,13 @@
         <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2308,16 +2149,13 @@
         <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -2325,16 +2163,13 @@
         <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>41</v>
       </c>
@@ -2347,8 +2182,341 @@
       <c r="D97" t="s">
         <v>5</v>
       </c>
-      <c r="E97" t="s">
-        <v>89</v>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>80</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
